--- a/Package1/TCdata/TC2.xlsx
+++ b/Package1/TCdata/TC2.xlsx
@@ -1,47 +1,96 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\works\PyCharm\SeleniumPython\TCdata\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22CDE863-2F86-4799-8120-0D5D2E91720D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="10010" windowWidth="19200" xWindow="32860" yWindow="2740"/>
+    <workbookView xWindow="32860" yWindow="2740" windowWidth="19200" windowHeight="10010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+  <si>
+    <t>DATE</t>
+  </si>
+  <si>
+    <t>RESULT</t>
+  </si>
+  <si>
+    <t>LOGS</t>
+  </si>
+  <si>
+    <t>URL-1</t>
+  </si>
+  <si>
+    <t>URL-2</t>
+  </si>
+  <si>
+    <t>EXPECTED-1</t>
+  </si>
+  <si>
+    <t>EXPECTED-2</t>
+  </si>
+  <si>
+    <t>COMMON</t>
+  </si>
+  <si>
+    <t>TC_2_1</t>
+  </si>
+  <si>
+    <t>https://www.google.com/</t>
+  </si>
+  <si>
+    <t>https://www.atlassian.com/software/jira</t>
+  </si>
+  <si>
+    <t>Google</t>
+  </si>
+  <si>
+    <t>Jira | Issue &amp; Project Tracking Software | Atlassian</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="10"/>
-      <sz val="11"/>
-      <u val="single"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="9.8000000000000007"/>
+      <color rgb="FF6A8759"/>
       <name val="Consolas"/>
       <family val="3"/>
-      <color rgb="FF6A8759"/>
-      <sz val="9.800000000000001"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -57,21 +106,30 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
-    <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -337,112 +395,77 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.6"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col customWidth="1" max="5" min="5" width="23.15234375"/>
-    <col customWidth="1" max="6" min="6" width="35.53515625"/>
-    <col customWidth="1" max="7" min="7" width="13.07421875"/>
-    <col customWidth="1" max="8" min="8" width="42"/>
+    <col min="5" max="5" width="23.15234375" customWidth="1"/>
+    <col min="6" max="6" width="35.53515625" customWidth="1"/>
+    <col min="7" max="7" width="13.07421875" customWidth="1"/>
+    <col min="8" max="8" width="42" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>DATE</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>RESULT</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>LOGS</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>URL-1</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>URL-2</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>EXPECTED-1</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>EXPECTED-2</t>
-        </is>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>COMMON</t>
-        </is>
-      </c>
-      <c r="E2" s="1" t="n"/>
-      <c r="F2" s="1" t="n"/>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>TC_2_1</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Passed</t>
-        </is>
-      </c>
-      <c r="E3" s="1" t="inlineStr">
-        <is>
-          <t>https://www.google.com/</t>
-        </is>
-      </c>
-      <c r="F3" s="1" t="inlineStr">
-        <is>
-          <t>https://www.atlassian.com/software/jira</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>Google</t>
-        </is>
-      </c>
-      <c r="H3" s="2" t="inlineStr">
-        <is>
-          <t>Jira | Issue &amp; Project Tracking Software | Atlassian</t>
-        </is>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
-    <row r="4">
-      <c r="G4" s="1" t="n"/>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="G4" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E3" r:id="rId1"/>
-    <hyperlink ref="F3" r:id="rId2"/>
+    <hyperlink ref="E3" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="F3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
 </worksheet>
 </file>